--- a/program/results/result_v040_lin_square_exp/T3500_23_digital/t_bias.xlsx
+++ b/program/results/result_v040_lin_square_exp/T3500_23_digital/t_bias.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:AX50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,81 @@
       <c r="Y1" t="n">
         <v>-0.183497078900826</v>
       </c>
+      <c r="Z1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX1" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -574,6 +649,81 @@
       <c r="Y2" t="n">
         <v>-0.183497078900826</v>
       </c>
+      <c r="Z2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -651,6 +801,81 @@
       <c r="Y3" t="n">
         <v>-0.183497078900826</v>
       </c>
+      <c r="Z3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -728,6 +953,81 @@
       <c r="Y4" t="n">
         <v>-0.183497078900826</v>
       </c>
+      <c r="Z4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -805,6 +1105,81 @@
       <c r="Y5" t="n">
         <v>-0.1438025785125475</v>
       </c>
+      <c r="Z5" t="n">
+        <v>-0.1411874984358246</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -882,6 +1257,81 @@
       <c r="Y6" t="n">
         <v>-0.06405338859969704</v>
       </c>
+      <c r="Z6" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>-0.183497078900826</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -945,19 +1395,94 @@
         <v>-0.05613790415743044</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.1028246472957946</v>
+        <v>-0.03767796294416388</v>
       </c>
       <c r="V7" t="n">
-        <v>-0.06381816521475557</v>
+        <v>-0.02885405156716541</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.04728634598430211</v>
+        <v>-0.01155053113932955</v>
       </c>
       <c r="X7" t="n">
-        <v>-0.03815758856323647</v>
+        <v>-0.004110151169270007</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.03305554660763163</v>
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.002606130616822886</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="8">
@@ -1013,28 +1538,103 @@
         <v>-0.07276139987650176</v>
       </c>
       <c r="R8" t="n">
-        <v>-0.1297405867025839</v>
+        <v>-0.04127478262680403</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.05414971777901435</v>
+        <v>-0.01641555362607049</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.02980544700130593</v>
+        <v>0.003526447684043375</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.01524537431176584</v>
+        <v>0.01898504786904719</v>
       </c>
       <c r="V8" t="n">
-        <v>-0.005609037154088806</v>
+        <v>0.03053385135685965</v>
       </c>
       <c r="W8" t="n">
-        <v>0.0005447924646285046</v>
+        <v>0.03897762194712662</v>
       </c>
       <c r="X8" t="n">
-        <v>0.004817803831267529</v>
+        <v>0.04489723893266886</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.04968841817886693</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="9">
@@ -1087,31 +1687,106 @@
         <v>-0.04258058063054189</v>
       </c>
       <c r="Q9" t="n">
-        <v>-0.04728634598430211</v>
+        <v>-0.01155053113932955</v>
       </c>
       <c r="R9" t="n">
-        <v>-0.02028800112042907</v>
+        <v>0.01333678304243919</v>
       </c>
       <c r="S9" t="n">
-        <v>-0.009377055637003848</v>
+        <v>0.03330871248317063</v>
       </c>
       <c r="T9" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01549407691698407</v>
+        <v>0.06043046729075013</v>
       </c>
       <c r="V9" t="n">
-        <v>0.02141465780970134</v>
+        <v>0.06958472275030182</v>
       </c>
       <c r="W9" t="n">
-        <v>0.02584354900930197</v>
+        <v>0.0766263420324055</v>
       </c>
       <c r="X9" t="n">
-        <v>0.02861847659068617</v>
+        <v>0.08112763164454212</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.03038832130347797</v>
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="10">
@@ -1158,37 +1833,112 @@
         <v>-0.06169691966896192</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.06381816521475557</v>
+        <v>-0.02885405156716541</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02383182414292384</v>
+        <v>0.009526208685317115</v>
       </c>
       <c r="Q10" t="n">
-        <v>-0.002959542957898981</v>
+        <v>0.0342641680839945</v>
       </c>
       <c r="R10" t="n">
-        <v>0.01119074001831434</v>
+        <v>0.05402256652098664</v>
       </c>
       <c r="S10" t="n">
-        <v>0.02141465780970134</v>
+        <v>0.06958472275030182</v>
       </c>
       <c r="T10" t="n">
-        <v>0.02930495676100567</v>
+        <v>0.08224170148415046</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03471384067750815</v>
+        <v>0.09132823473775305</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0391667358635083</v>
+        <v>0.09883952384296404</v>
       </c>
       <c r="W10" t="n">
-        <v>0.04230979729966732</v>
+        <v>0.104219269442601</v>
       </c>
       <c r="X10" t="n">
-        <v>0.04466350525574088</v>
+        <v>0.1081965289474012</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.04602169251334065</v>
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.1110905492428225</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="11">
@@ -1232,40 +1982,115 @@
         <v>-0.05096566309041271</v>
       </c>
       <c r="N11" t="n">
-        <v>-0.04452552528562487</v>
+        <v>-0.009440944144961175</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.01211483578902872</v>
+        <v>0.02270103401257716</v>
       </c>
       <c r="P11" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0209854503605591</v>
+        <v>0.06885043866864871</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0309894748275969</v>
+        <v>0.0849928430381396</v>
       </c>
       <c r="S11" t="n">
-        <v>0.03818084053696898</v>
+        <v>0.09712976290260004</v>
       </c>
       <c r="T11" t="n">
-        <v>0.04419212152708173</v>
+        <v>0.1073951074654451</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04899472455530976</v>
+        <v>0.1157123804109486</v>
       </c>
       <c r="V11" t="n">
-        <v>0.05260377227770947</v>
+        <v>0.1220069961404451</v>
       </c>
       <c r="W11" t="n">
-        <v>0.05521964673907204</v>
+        <v>0.1266032639341551</v>
       </c>
       <c r="X11" t="n">
-        <v>0.05708588157568837</v>
+        <v>0.129890372134863</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05816815113492973</v>
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="12">
@@ -1306,43 +2131,118 @@
         <v>-0.04813944824524938</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.03815758856323647</v>
+        <v>-0.004110151169270007</v>
       </c>
       <c r="N12" t="n">
-        <v>-0.005609037154088806</v>
+        <v>0.03053385135685965</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01311021809660131</v>
+        <v>0.05690499353988997</v>
       </c>
       <c r="P12" t="n">
-        <v>0.02698621054167563</v>
+        <v>0.07843998217648557</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03668788390631808</v>
+        <v>0.09465302586059787</v>
       </c>
       <c r="R12" t="n">
-        <v>0.04466350525574088</v>
+        <v>0.1081965289474012</v>
       </c>
       <c r="S12" t="n">
-        <v>0.05094821561749831</v>
+        <v>0.1191127275333558</v>
       </c>
       <c r="T12" t="n">
-        <v>0.05602700200367237</v>
+        <v>0.1279900596192629</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06008346263038809</v>
+        <v>0.1351635421320857</v>
       </c>
       <c r="V12" t="n">
-        <v>0.06311912716810252</v>
+        <v>0.08785223686168564</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06523431941796357</v>
+        <v>0.1482158196952993</v>
       </c>
       <c r="X12" t="n">
-        <v>0.06705158514025211</v>
+        <v>0.1540991412750447</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.06784680765133504</v>
+        <v>0.155871245672183</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.156441942986779</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>-0.04813944824524938</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="13">
@@ -1380,46 +2280,121 @@
         <v>-0.05096566309041271</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.03815758856323647</v>
+        <v>-0.004110151169270007</v>
       </c>
       <c r="M13" t="n">
-        <v>-0.009377055637003848</v>
+        <v>0.03330871248317063</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01631546268919983</v>
+        <v>0.06167033672451584</v>
       </c>
       <c r="O13" t="n">
-        <v>0.03038832130347797</v>
+        <v>0.08398515787198718</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04046079286699108</v>
+        <v>0.1010602785439921</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.04899472455530976</v>
+        <v>0.1157123804109486</v>
       </c>
       <c r="R13" t="n">
-        <v>0.05557437700212214</v>
+        <v>0.1272400350831861</v>
       </c>
       <c r="S13" t="n">
-        <v>0.06113828734984657</v>
+        <v>0.1370596685658698</v>
       </c>
       <c r="T13" t="n">
-        <v>0.06523431941796357</v>
+        <v>0.1482158196952993</v>
       </c>
       <c r="U13" t="n">
-        <v>0.06864646362203045</v>
+        <v>0.1576338325851163</v>
       </c>
       <c r="V13" t="n">
-        <v>0.07104066725761088</v>
+        <v>0.1626278854018184</v>
       </c>
       <c r="W13" t="n">
-        <v>0.07288982043593005</v>
+        <v>0.16632171881201</v>
       </c>
       <c r="X13" t="n">
-        <v>0.07426108242290713</v>
+        <v>0.1689255772353803</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.0751537219866787</v>
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="14">
@@ -1454,49 +2429,124 @@
         <v>-0.06169691966896192</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.04452552528562487</v>
+        <v>-0.009440944144961175</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.005609037154088806</v>
+        <v>0.03053385135685965</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01631546268919983</v>
+        <v>0.06167033672451584</v>
       </c>
       <c r="N14" t="n">
-        <v>0.03142619909011143</v>
+        <v>0.08570718908240059</v>
       </c>
       <c r="O14" t="n">
-        <v>0.04230979729966732</v>
+        <v>0.104219269442601</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05142470627387402</v>
+        <v>0.1199342823111385</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05857095491579917</v>
+        <v>0.1324715119059073</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06447469695325307</v>
+        <v>0.124331258926169</v>
       </c>
       <c r="S14" t="n">
-        <v>0.06888212401464998</v>
+        <v>0.1581283750716451</v>
       </c>
       <c r="T14" t="n">
-        <v>0.07232438663332674</v>
+        <v>0.165187417994246</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07539571061706475</v>
+        <v>0.1710364293205574</v>
       </c>
       <c r="V14" t="n">
-        <v>0.07800674474154085</v>
+        <v>0.1756547461679166</v>
       </c>
       <c r="W14" t="n">
-        <v>0.08014881870107873</v>
+        <v>0.1792631430155408</v>
       </c>
       <c r="X14" t="n">
-        <v>0.08164000849370966</v>
+        <v>0.1816265171171379</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.08255997744490193</v>
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.1836232522633147</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0.08570718908240059</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="15">
@@ -1528,52 +2578,127 @@
         <v>-0.08026279075282036</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.06381816521475557</v>
+        <v>-0.02885405156716541</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.01211483578902872</v>
+        <v>0.02270103401257716</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01311021809660131</v>
+        <v>0.05690499353988997</v>
       </c>
       <c r="M15" t="n">
-        <v>0.03038832130347797</v>
+        <v>0.08398515787198718</v>
       </c>
       <c r="N15" t="n">
-        <v>0.04230979729966732</v>
+        <v>0.104219269442601</v>
       </c>
       <c r="O15" t="n">
-        <v>0.05224133335904792</v>
+        <v>0.1213565212744712</v>
       </c>
       <c r="P15" t="n">
-        <v>0.06008346263038809</v>
+        <v>0.1351635421320857</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06657467855834293</v>
+        <v>0.1530151676720322</v>
       </c>
       <c r="R15" t="n">
-        <v>0.07104066725761088</v>
+        <v>0.1626278854018184</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0751537219866787</v>
+        <v>0.1705965039594371</v>
       </c>
       <c r="T15" t="n">
-        <v>0.07891013347459121</v>
+        <v>0.1771823376982076</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08230942909547796</v>
+        <v>0.1826977141389521</v>
       </c>
       <c r="V15" t="n">
-        <v>0.08516792580594867</v>
+        <v>0.1870170779561848</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08746717837570976</v>
+        <v>0.1902941539075482</v>
       </c>
       <c r="X15" t="n">
-        <v>0.08927493149558205</v>
+        <v>0.1927773881360298</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.09031417339642463</v>
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.1945977775695508</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0.1213565212744712</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="16">
@@ -1605,52 +2730,127 @@
         <v>-0.04258058063054189</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.02383182414292384</v>
+        <v>0.009526208685317115</v>
       </c>
       <c r="K16" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
       </c>
       <c r="L16" t="n">
-        <v>0.02698621054167563</v>
+        <v>0.07843998217648557</v>
       </c>
       <c r="M16" t="n">
-        <v>0.04046079286699108</v>
+        <v>0.1010602785439921</v>
       </c>
       <c r="N16" t="n">
-        <v>0.05142470627387402</v>
+        <v>0.1199342823111385</v>
       </c>
       <c r="O16" t="n">
-        <v>0.06008346263038809</v>
+        <v>0.1351635421320857</v>
       </c>
       <c r="P16" t="n">
-        <v>0.06705158514025211</v>
+        <v>0.1540991412750447</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.07208611831304128</v>
+        <v>0.1647600624989007</v>
       </c>
       <c r="R16" t="n">
-        <v>0.07686095922868141</v>
+        <v>0.1736534937926691</v>
       </c>
       <c r="S16" t="n">
-        <v>0.08130875405890167</v>
+        <v>0.1811151147910641</v>
       </c>
       <c r="T16" t="n">
-        <v>0.08550643519173602</v>
+        <v>0.1875022379966668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08927493149558205</v>
+        <v>0.1927773881360298</v>
       </c>
       <c r="V16" t="n">
-        <v>0.09517382801192656</v>
+        <v>0.1970931740472288</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1623818050973312</v>
+        <v>0.2024021653140631</v>
       </c>
       <c r="X16" t="n">
-        <v>0.09992055492895072</v>
+        <v>0.2047826298294947</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.1006430324615561</v>
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="17">
@@ -1679,55 +2879,130 @@
         <v>-0.07276139987650176</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.04728634598430211</v>
+        <v>-0.01155053113932955</v>
       </c>
       <c r="J17" t="n">
-        <v>-0.002959542957898981</v>
+        <v>0.0342641680839945</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0209854503605591</v>
+        <v>0.06885043866864871</v>
       </c>
       <c r="L17" t="n">
-        <v>0.03668788390631808</v>
+        <v>0.09465302586059787</v>
       </c>
       <c r="M17" t="n">
-        <v>0.04899472455530976</v>
+        <v>0.1157123804109486</v>
       </c>
       <c r="N17" t="n">
-        <v>0.05857095491579917</v>
+        <v>0.1324715119059073</v>
       </c>
       <c r="O17" t="n">
-        <v>0.06657467855834293</v>
+        <v>0.1530151676720322</v>
       </c>
       <c r="P17" t="n">
-        <v>0.07208611831304128</v>
+        <v>0.1647600624989007</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.07743482108649721</v>
+        <v>0.1746738491290884</v>
       </c>
       <c r="R17" t="n">
-        <v>0.08255997744490193</v>
+        <v>0.1830779861205971</v>
       </c>
       <c r="S17" t="n">
-        <v>0.08746717837570976</v>
+        <v>0.1902941539075482</v>
       </c>
       <c r="T17" t="n">
-        <v>0.09481739727171823</v>
+        <v>0.1965129746947485</v>
       </c>
       <c r="U17" t="n">
-        <v>0.09937742777034911</v>
+        <v>0.2038499936541732</v>
       </c>
       <c r="V17" t="n">
-        <v>0.101821372646438</v>
+        <v>0.2080341895793815</v>
       </c>
       <c r="W17" t="n">
-        <v>0.103675165482856</v>
+        <v>0.2112422309710515</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1050140968117761</v>
+        <v>0.2135199216653726</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.1057545574379081</v>
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.2153327109333877</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0.1746738491290884</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="18">
@@ -1753,58 +3028,133 @@
         <v>-0.1087902478784176</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1297405867025839</v>
+        <v>-0.04127478262680403</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.02028800112042907</v>
+        <v>0.01333678304243919</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01119074001831434</v>
+        <v>0.05402256652098664</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0309894748275969</v>
+        <v>0.0849928430381396</v>
       </c>
       <c r="L18" t="n">
-        <v>0.04466350525574088</v>
+        <v>0.1081965289474012</v>
       </c>
       <c r="M18" t="n">
-        <v>0.05557437700212214</v>
+        <v>0.1272400350831861</v>
       </c>
       <c r="N18" t="n">
-        <v>0.06447469695325307</v>
+        <v>0.124331258926169</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07104066725761088</v>
+        <v>0.1626278854018184</v>
       </c>
       <c r="P18" t="n">
-        <v>0.07686095922868141</v>
+        <v>0.1736534937926691</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.08255997744490193</v>
+        <v>0.1830779861205971</v>
       </c>
       <c r="R18" t="n">
-        <v>0.08815481949800928</v>
+        <v>0.1912560293346147</v>
       </c>
       <c r="S18" t="n">
-        <v>0.09591158562398032</v>
+        <v>0.1983986785705221</v>
       </c>
       <c r="T18" t="n">
-        <v>0.1009024686380111</v>
+        <v>0.2065081626334241</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1038414115877306</v>
+        <v>0.2115168312787869</v>
       </c>
       <c r="V18" t="n">
-        <v>0.1063404500344076</v>
+        <v>0.2157825292849259</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1082747781495431</v>
+        <v>0.2190636535823492</v>
       </c>
       <c r="X18" t="n">
-        <v>0.1096806604570702</v>
+        <v>0.2213956700264869</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1105170688763672</v>
+        <v>0.222840679194339</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0.2233185186247566</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0.1912560293346147</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="19">
@@ -1830,58 +3180,133 @@
         <v>-0.08026279075282036</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.05414971777901435</v>
+        <v>-0.01641555362607049</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.009377055637003848</v>
+        <v>0.03330871248317063</v>
       </c>
       <c r="J19" t="n">
-        <v>0.02141465780970134</v>
+        <v>0.06958472275030182</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03818084053696898</v>
+        <v>0.09712976290260004</v>
       </c>
       <c r="L19" t="n">
-        <v>0.05094821561749831</v>
+        <v>0.1191127275333558</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06113828734984657</v>
+        <v>0.1370596685658698</v>
       </c>
       <c r="N19" t="n">
-        <v>0.06888212401464998</v>
+        <v>0.1581283750716451</v>
       </c>
       <c r="O19" t="n">
-        <v>0.0751537219866787</v>
+        <v>0.1705965039594371</v>
       </c>
       <c r="P19" t="n">
-        <v>0.08130875405890167</v>
+        <v>0.1811151147910641</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.08746717837570976</v>
+        <v>0.1902941539075482</v>
       </c>
       <c r="R19" t="n">
-        <v>0.09591158562398032</v>
+        <v>0.1983986785705221</v>
       </c>
       <c r="S19" t="n">
-        <v>0.1015137765100562</v>
+        <v>0.2075292415884785</v>
       </c>
       <c r="T19" t="n">
-        <v>0.1050140968117761</v>
+        <v>0.2135199216653726</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1079430150941799</v>
+        <v>0.2184892523714485</v>
       </c>
       <c r="V19" t="n">
-        <v>0.1105170688763672</v>
+        <v>0.222840679194339</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1124812632090798</v>
+        <v>0.2261298415019327</v>
       </c>
       <c r="X19" t="n">
         <v>0.2285442750168182</v>
       </c>
       <c r="Y19" t="n">
         <v>0.2300783629902579</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.2305732922276111</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.2075292415884785</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="20">
@@ -1907,46 +3332,46 @@
         <v>-0.05613790415743044</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.02980544700130593</v>
+        <v>0.003526447684043375</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
       </c>
       <c r="J20" t="n">
-        <v>0.02930495676100567</v>
+        <v>0.08224170148415046</v>
       </c>
       <c r="K20" t="n">
-        <v>0.04419212152708173</v>
+        <v>0.1073951074654451</v>
       </c>
       <c r="L20" t="n">
-        <v>0.05602700200367237</v>
+        <v>0.1279900596192629</v>
       </c>
       <c r="M20" t="n">
-        <v>0.06523431941796357</v>
+        <v>0.1482158196952993</v>
       </c>
       <c r="N20" t="n">
-        <v>0.07232438663332674</v>
+        <v>0.165187417994246</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07891013347459121</v>
+        <v>0.1771823376982076</v>
       </c>
       <c r="P20" t="n">
-        <v>0.08550643519173602</v>
+        <v>0.1875022379966668</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.09481739727171823</v>
+        <v>0.1965129746947485</v>
       </c>
       <c r="R20" t="n">
-        <v>0.1009024686380111</v>
+        <v>0.2065081626334241</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1050140968117761</v>
+        <v>0.2135199216653726</v>
       </c>
       <c r="T20" t="n">
-        <v>0.1085166881581052</v>
+        <v>0.2194548355911308</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1115737771464136</v>
+        <v>0.2245998398389946</v>
       </c>
       <c r="V20" t="n">
         <v>0.2290587731596009</v>
@@ -1959,6 +3384,81 @@
       </c>
       <c r="Y20" t="n">
         <v>0.2369586268842396</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0.2375606409076934</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0.2194548355911308</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="21">
@@ -1981,46 +3481,46 @@
         <v>-0.1087902478784176</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1028246472957946</v>
+        <v>-0.03767796294416388</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.01524537431176584</v>
+        <v>0.01898504786904719</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01549407691698407</v>
+        <v>0.06043046729075013</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03471384067750815</v>
+        <v>0.09132823473775305</v>
       </c>
       <c r="K21" t="n">
-        <v>0.04899472455530976</v>
+        <v>0.1157123804109486</v>
       </c>
       <c r="L21" t="n">
-        <v>0.06008346263038809</v>
+        <v>0.1351635421320857</v>
       </c>
       <c r="M21" t="n">
-        <v>0.06864646362203045</v>
+        <v>0.1576338325851163</v>
       </c>
       <c r="N21" t="n">
-        <v>0.07539571061706475</v>
+        <v>0.1710364293205574</v>
       </c>
       <c r="O21" t="n">
-        <v>0.08230942909547796</v>
+        <v>0.1826977141389521</v>
       </c>
       <c r="P21" t="n">
-        <v>0.08927493149558205</v>
+        <v>0.1927773881360298</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.09937742777034911</v>
+        <v>0.2038499936541732</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1038414115877306</v>
+        <v>0.2115168312787869</v>
       </c>
       <c r="S21" t="n">
-        <v>0.1079430150941799</v>
+        <v>0.2184892523714485</v>
       </c>
       <c r="T21" t="n">
-        <v>0.1115737771464136</v>
+        <v>0.2245998398389946</v>
       </c>
       <c r="U21" t="n">
         <v>0.2300783629902579</v>
@@ -2036,6 +3536,81 @@
       </c>
       <c r="Y21" t="n">
         <v>0.2413493340147412</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="22">
@@ -2058,43 +3633,43 @@
         <v>-0.09348475486750303</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06381816521475557</v>
+        <v>-0.02885405156716541</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.005609037154088806</v>
+        <v>0.03053385135685965</v>
       </c>
       <c r="I22" t="n">
-        <v>0.02141465780970134</v>
+        <v>0.06958472275030182</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0391667358635083</v>
+        <v>0.09883952384296404</v>
       </c>
       <c r="K22" t="n">
-        <v>0.05260377227770947</v>
+        <v>0.1220069961404451</v>
       </c>
       <c r="L22" t="n">
-        <v>0.06311912716810252</v>
+        <v>0.08785223686168564</v>
       </c>
       <c r="M22" t="n">
-        <v>0.07104066725761088</v>
+        <v>0.1626278854018184</v>
       </c>
       <c r="N22" t="n">
-        <v>0.07800674474154085</v>
+        <v>0.1756547461679166</v>
       </c>
       <c r="O22" t="n">
-        <v>0.08516792580594867</v>
+        <v>0.1870170779561848</v>
       </c>
       <c r="P22" t="n">
-        <v>0.09517382801192656</v>
+        <v>0.1970931740472288</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.101821372646438</v>
+        <v>0.2080341895793815</v>
       </c>
       <c r="R22" t="n">
-        <v>0.1063404500344076</v>
+        <v>0.2157825292849259</v>
       </c>
       <c r="S22" t="n">
-        <v>0.1105170688763672</v>
+        <v>0.222840679194339</v>
       </c>
       <c r="T22" t="n">
         <v>0.2290587731596009</v>
@@ -2113,6 +3688,81 @@
       </c>
       <c r="Y22" t="n">
         <v>0.2473578198953264</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.2480403344777646</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>0.2398319735359679</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="23">
@@ -2135,43 +3785,43 @@
         <v>-0.08080279359692358</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.04728634598430211</v>
+        <v>-0.01155053113932955</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0005447924646285046</v>
+        <v>0.03897762194712662</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02584354900930197</v>
+        <v>0.0766263420324055</v>
       </c>
       <c r="J23" t="n">
-        <v>0.04230979729966732</v>
+        <v>0.104219269442601</v>
       </c>
       <c r="K23" t="n">
-        <v>0.05521964673907204</v>
+        <v>0.1266032639341551</v>
       </c>
       <c r="L23" t="n">
-        <v>0.06523431941796357</v>
+        <v>0.1482158196952993</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07288982043593005</v>
+        <v>0.16632171881201</v>
       </c>
       <c r="N23" t="n">
-        <v>0.08014881870107873</v>
+        <v>0.1792631430155408</v>
       </c>
       <c r="O23" t="n">
-        <v>0.08746717837570976</v>
+        <v>0.1902941539075482</v>
       </c>
       <c r="P23" t="n">
-        <v>0.1623818050973312</v>
+        <v>0.2024021653140631</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.103675165482856</v>
+        <v>0.2112422309710515</v>
       </c>
       <c r="R23" t="n">
-        <v>0.1082747781495431</v>
+        <v>0.2190636535823492</v>
       </c>
       <c r="S23" t="n">
-        <v>0.1124812632090798</v>
+        <v>0.2261298415019327</v>
       </c>
       <c r="T23" t="n">
         <v>0.2325584848961305</v>
@@ -2190,6 +3840,81 @@
       </c>
       <c r="Y23" t="n">
         <v>0.2528922826097283</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.2537695347184658</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0.2465842853733118</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="24">
@@ -2212,40 +3937,40 @@
         <v>-0.06848552891209624</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03815758856323647</v>
+        <v>-0.004110151169270007</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004817803831267529</v>
+        <v>0.04489723893266886</v>
       </c>
       <c r="I24" t="n">
-        <v>0.02861847659068617</v>
+        <v>0.08112763164454212</v>
       </c>
       <c r="J24" t="n">
-        <v>0.04466350525574088</v>
+        <v>0.1081965289474012</v>
       </c>
       <c r="K24" t="n">
-        <v>0.05708588157568837</v>
+        <v>0.129890372134863</v>
       </c>
       <c r="L24" t="n">
-        <v>0.06705158514025211</v>
+        <v>0.1540991412750447</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07426108242290713</v>
+        <v>0.1689255772353803</v>
       </c>
       <c r="N24" t="n">
-        <v>0.08164000849370966</v>
+        <v>0.1816265171171379</v>
       </c>
       <c r="O24" t="n">
-        <v>0.08927493149558205</v>
+        <v>0.1927773881360298</v>
       </c>
       <c r="P24" t="n">
-        <v>0.09992055492895072</v>
+        <v>0.2047826298294947</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.1050140968117761</v>
+        <v>0.2135199216653726</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1096806604570702</v>
+        <v>0.2213956700264869</v>
       </c>
       <c r="S24" t="n">
         <v>0.2285442750168182</v>
@@ -2267,6 +3992,81 @@
       </c>
       <c r="Y24" t="n">
         <v>0.2580040625778195</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>0.2592855965698535</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>0.2547477511429365</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
     <row r="25">
@@ -2289,40 +4089,40 @@
         <v>-0.06405338859969704</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03305554660763163</v>
+        <v>0.000424551385810708</v>
       </c>
       <c r="H25" t="n">
-        <v>0.007494470615057526</v>
+        <v>0.04858596928935686</v>
       </c>
       <c r="I25" t="n">
-        <v>0.03038832130347797</v>
+        <v>0.08398515787198718</v>
       </c>
       <c r="J25" t="n">
-        <v>0.04602169251334065</v>
+        <v>0.1105619698002124</v>
       </c>
       <c r="K25" t="n">
-        <v>0.05816815113492973</v>
+        <v>0.1318017422673634</v>
       </c>
       <c r="L25" t="n">
-        <v>0.06784680765133504</v>
+        <v>0.155871245672183</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0751537219866787</v>
+        <v>0.1705965039594371</v>
       </c>
       <c r="N25" t="n">
-        <v>0.08255997744490193</v>
+        <v>0.1830779861205971</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09031417339642463</v>
+        <v>0.1941508908937684</v>
       </c>
       <c r="P25" t="n">
-        <v>0.1006430324615561</v>
+        <v>0.2060631044536744</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.1057545574379081</v>
+        <v>0.2147990677310128</v>
       </c>
       <c r="R25" t="n">
-        <v>0.1105170688763672</v>
+        <v>0.222840679194339</v>
       </c>
       <c r="S25" t="n">
         <v>0.2300783629902579</v>
@@ -2344,6 +4144,3881 @@
       </c>
       <c r="Y25" t="n">
         <v>0.2623550716240673</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.2645577514612787</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>0.2623550716240673</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.1411874984358246</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.002606130616822886</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.04968841817886693</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.1110905492428225</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.156441942986779</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.1836232522633147</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.1945977775695508</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.2153327109333877</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.2233185186247566</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.2305732922276111</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0.2375606409076934</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.2480403344777646</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0.2537695347184658</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0.2592855965698535</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>0.2645577514612787</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.2696484541506571</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>0.2645577514612787</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.2592855965698535</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.2537695347184658</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0.2480403344777646</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0.2375606409076934</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0.2305732922276111</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0.2233185186247566</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0.2153327109333877</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0.1945977775695508</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0.1836232522633147</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0.156441942986779</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0.1110905492428225</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0.04968841817886693</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0.002606130616822886</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>-0.1411874984358246</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="W27" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="X27" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>0.2623550716240673</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.2645577514612787</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>0.2623550716240673</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="X28" t="n">
+        <v>0.2547477511429365</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.2592855965698535</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>0.2580040625778195</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0.2547477511429365</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0.2465842853733118</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.2537695347184658</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>0.2528922826097283</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.2503092943685455</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>0.2465842853733118</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.2398319735359679</v>
+      </c>
+      <c r="W30" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="X30" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.2480403344777646</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>0.2473578198953264</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0.2451983948478794</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0.2398319735359679</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="X31" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>0.2419539318358897</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>0.2413493340147412</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>0.2396000279073645</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>0.2386285121783168</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>0.2347073642107125</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0.2194548355911308</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="W32" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="X32" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>0.2375606409076934</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.2369586268842396</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.2352633438424625</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>0.2325584848961305</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0.2290587731596009</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.2245998398389946</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0.2194548355911308</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.2075292415884785</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0.2305732922276111</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.2300783629902579</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>0.2285442750168182</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>0.2261298415019327</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>0.2184892523714485</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0.2075292415884785</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.1912560293346147</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.2233185186247566</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.222840679194339</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.2213956700264869</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.2190636535823492</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.2157825292849259</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.2115168312787869</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>0.1983986785705221</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0.1912560293346147</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="I35" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.1746738491290884</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.2153327109333877</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.2147990677310128</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>0.2135199216653726</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>0.2112422309710515</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.2080341895793815</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.2038499936541732</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>0.1965129746947485</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0.1746738491290884</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="I36" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.2065081626334241</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.2060631044536744</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>0.2047826298294947</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>0.2024021653140631</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.1970931740472288</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0.1875022379966668</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>0.1811151147910641</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>0.1736534937926691</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>0.1647600624989007</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="I37" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0.1213565212744712</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.1945977775695508</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.1941508908937684</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>0.1927773881360298</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>0.1902941539075482</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.1870170779561848</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.1826977141389521</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0.1771823376982076</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>0.1530151676720322</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0.1213565212744712</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="I38" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="K38" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.08570718908240059</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.1836232522633147</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.1830779861205971</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>0.1816265171171379</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>0.1792631430155408</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.1756547461679166</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0.165187417994246</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>0.1581283750716451</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0.124331258926169</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0.1199342823111385</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>0.08570718908240059</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I39" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.1710364293205574</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.1705965039594371</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>0.1689255772353803</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>0.16632171881201</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.1626278854018184</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.1576338325851163</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>0.1370596685658698</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>0.1272400350831861</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>0.1010602785439921</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>0.06167033672451584</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.04813944824524938</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.156441942986779</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.155871245672183</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>0.1540991412750447</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>0.1482158196952993</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.08785223686168564</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.1351635421320857</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0.1279900596192629</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>0.1191127275333558</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>0.09465302586059787</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>0.07843998217648557</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>0.05690499353988997</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>-0.04813944824524938</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>0.1324715119059073</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.1318017422673634</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>0.129890372134863</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>0.1266032639341551</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0.1220069961404451</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0.1157123804109486</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0.1073951074654451</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>0.09712976290260004</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0.06885043866864871</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>0.02270103401257716</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>-0.009440944144961175</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>-0.05096566309041271</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>-0.1030373297601395</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="X42" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0.1110905492428225</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.1105619698002124</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.1081965289474012</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.104219269442601</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.09883952384296404</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0.09132823473775305</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>0.08224170148415046</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>0.05402256652098664</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>0.0342641680839945</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0.009526208685317115</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>-0.1572287544168034</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="W43" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="X43" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0.0849928430381396</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.08398515787198718</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>0.08112763164454212</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.0766263420324055</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>0.06958472275030182</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>0.06043046729075013</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>0.03330871248317063</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0.01333678304243919</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>-0.04258058063054189</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>-0.1258090800701959</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>-0.1646785745976017</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="O44" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="P44" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="R44" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="S44" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0.04968841817886693</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0.04858596928935686</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.04489723893266886</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.03897762194712662</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.03053385135685965</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>0.01898504786904719</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>0.003526447684043375</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>-0.01641555362607049</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>-0.04127478262680403</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>-0.07276139987650176</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>-0.1081200686072887</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>-0.1769382205959922</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O45" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="R45" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="S45" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="T45" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="U45" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="V45" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="W45" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="X45" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0.002606130616822886</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.000424551385810708</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>-0.004110151169270007</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>-0.01155053113932955</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>-0.02885405156716541</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>-0.03767796294416388</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>-0.05613790415743044</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>-0.08026279075282036</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>-0.1682299243469703</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>-0.1809763988107866</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="R46" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="S46" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="T46" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="U46" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="V46" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="W46" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="X46" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>-0.06169691966896192</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>-0.06405338859969704</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>-0.06848552891209624</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>-0.08080279359692358</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>-0.09348475486750303</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>-0.1087902478784176</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>-0.1305189608666673</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>-0.1527362282553386</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>-0.1736573048120629</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>-0.1821251638798592</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="S47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="T47" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="U47" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="V47" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="W47" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="X47" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>-0.1411874984358246</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>-0.1438025785125475</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>-0.1460553240237698</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>-0.1537093900071667</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.1666484393122332</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>-0.1770800441392094</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>-0.1795246771716528</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="S48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="T48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="U48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="V48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="W48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="X48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="P49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="S49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="T49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="U49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="V49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="W49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="X49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="I50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="J50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="S50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="T50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="U50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="V50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="W50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="X50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>-0.183497078900826</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>-0.183497078900826</v>
       </c>
     </row>
   </sheetData>
